--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cyient Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cyient Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -663,7 +663,7 @@
         <v>173.88</v>
       </c>
       <c r="G2">
-        <v>69.10785714285716</v>
+        <v>69.11</v>
       </c>
       <c r="H2">
         <v>1.43</v>
@@ -702,13 +702,13 @@
         <v>2.96</v>
       </c>
       <c r="T2">
-        <v>83.74499999999999</v>
+        <v>83.73999999999999</v>
       </c>
       <c r="U2">
         <v>114.95</v>
       </c>
       <c r="V2">
-        <v>68.98666666666666</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="W2">
         <v>56.77</v>
@@ -720,7 +720,7 @@
         <v>7.41</v>
       </c>
       <c r="Z2">
-        <v>187.8064285714286</v>
+        <v>187.81</v>
       </c>
       <c r="AA2">
         <v>89.5</v>
@@ -738,7 +738,7 @@
         <v>146.51</v>
       </c>
       <c r="AF2">
-        <v>965.8683333333333</v>
+        <v>965.87</v>
       </c>
       <c r="AG2">
         <v>9.81</v>
@@ -767,7 +767,7 @@
         <v>211.58</v>
       </c>
       <c r="G3">
-        <v>69.10785714285716</v>
+        <v>69.11</v>
       </c>
       <c r="H3">
         <v>0.23</v>
@@ -806,13 +806,13 @@
         <v>2.56</v>
       </c>
       <c r="T3">
-        <v>83.74499999999999</v>
+        <v>83.73999999999999</v>
       </c>
       <c r="U3">
         <v>136.07</v>
       </c>
       <c r="V3">
-        <v>68.98666666666666</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="W3">
         <v>67.38</v>
@@ -824,7 +824,7 @@
         <v>20.1</v>
       </c>
       <c r="Z3">
-        <v>187.8064285714286</v>
+        <v>187.81</v>
       </c>
       <c r="AA3">
         <v>114.83</v>
@@ -842,7 +842,7 @@
         <v>207.38</v>
       </c>
       <c r="AF3">
-        <v>965.8683333333333</v>
+        <v>965.87</v>
       </c>
       <c r="AG3">
         <v>9.81</v>
@@ -871,7 +871,7 @@
         <v>273.39</v>
       </c>
       <c r="G4">
-        <v>69.10785714285716</v>
+        <v>69.11</v>
       </c>
       <c r="H4">
         <v>15.17</v>
@@ -895,7 +895,7 @@
         <v>85.15000000000001</v>
       </c>
       <c r="O4">
-        <v>30.68875</v>
+        <v>30.69</v>
       </c>
       <c r="P4">
         <v>28.85</v>
@@ -910,13 +910,13 @@
         <v>2.98</v>
       </c>
       <c r="T4">
-        <v>83.74499999999999</v>
+        <v>83.73999999999999</v>
       </c>
       <c r="U4">
         <v>184.1</v>
       </c>
       <c r="V4">
-        <v>68.98666666666666</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="W4">
         <v>90.22</v>
@@ -928,7 +928,7 @@
         <v>28.54</v>
       </c>
       <c r="Z4">
-        <v>187.8064285714286</v>
+        <v>187.81</v>
       </c>
       <c r="AA4">
         <v>164.34</v>
@@ -975,7 +975,7 @@
         <v>625.62</v>
       </c>
       <c r="G5">
-        <v>69.10785714285716</v>
+        <v>69.11</v>
       </c>
       <c r="H5">
         <v>28.05</v>
@@ -999,7 +999,7 @@
         <v>186.73</v>
       </c>
       <c r="O5">
-        <v>30.68875</v>
+        <v>30.69</v>
       </c>
       <c r="P5">
         <v>31.13</v>
@@ -1014,13 +1014,13 @@
         <v>0.48</v>
       </c>
       <c r="T5">
-        <v>83.74499999999999</v>
+        <v>83.73999999999999</v>
       </c>
       <c r="U5">
         <v>487.04</v>
       </c>
       <c r="V5">
-        <v>68.98666666666666</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="W5">
         <v>126.16</v>
@@ -1032,7 +1032,7 @@
         <v>34.76</v>
       </c>
       <c r="Z5">
-        <v>187.8064285714286</v>
+        <v>187.81</v>
       </c>
       <c r="AA5">
         <v>248.45</v>
@@ -1041,7 +1041,7 @@
         <v>735.49</v>
       </c>
       <c r="AC5">
-        <v>558.1094736842106</v>
+        <v>558.11</v>
       </c>
       <c r="AD5">
         <v>58.19</v>
@@ -1079,10 +1079,10 @@
         <v>689.9</v>
       </c>
       <c r="G6">
-        <v>69.10785714285716</v>
+        <v>69.11</v>
       </c>
       <c r="H6">
-        <v>82.44499999999999</v>
+        <v>82.44</v>
       </c>
       <c r="I6">
         <v>59.95</v>
@@ -1103,7 +1103,7 @@
         <v>209.17</v>
       </c>
       <c r="O6">
-        <v>30.68875</v>
+        <v>30.69</v>
       </c>
       <c r="P6">
         <v>58.42</v>
@@ -1118,13 +1118,13 @@
         <v>17.89</v>
       </c>
       <c r="T6">
-        <v>83.74499999999999</v>
+        <v>83.73999999999999</v>
       </c>
       <c r="U6">
         <v>388.17</v>
       </c>
       <c r="V6">
-        <v>68.98666666666666</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="W6">
         <v>154.05</v>
@@ -1136,7 +1136,7 @@
         <v>46.46</v>
       </c>
       <c r="Z6">
-        <v>187.8064285714286</v>
+        <v>187.81</v>
       </c>
       <c r="AA6">
         <v>473.42</v>
@@ -1183,10 +1183,10 @@
         <v>803.83</v>
       </c>
       <c r="G7">
-        <v>69.10785714285716</v>
+        <v>69.11</v>
       </c>
       <c r="H7">
-        <v>82.44499999999999</v>
+        <v>82.44</v>
       </c>
       <c r="I7">
         <v>47.82</v>
@@ -1207,7 +1207,7 @@
         <v>199.45</v>
       </c>
       <c r="O7">
-        <v>30.68875</v>
+        <v>30.69</v>
       </c>
       <c r="P7">
         <v>60.48</v>
@@ -1222,13 +1222,13 @@
         <v>2.4</v>
       </c>
       <c r="T7">
-        <v>83.74499999999999</v>
+        <v>83.73999999999999</v>
       </c>
       <c r="U7">
         <v>538.6799999999999</v>
       </c>
       <c r="V7">
-        <v>68.98666666666666</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="W7">
         <v>90.34999999999999</v>
@@ -1240,7 +1240,7 @@
         <v>153.19</v>
       </c>
       <c r="Z7">
-        <v>187.8064285714286</v>
+        <v>187.81</v>
       </c>
       <c r="AA7">
         <v>429.59</v>
@@ -1362,7 +1362,7 @@
         <v>627.83</v>
       </c>
       <c r="AF8">
-        <v>965.8683333333333</v>
+        <v>965.87</v>
       </c>
       <c r="AG8">
         <v>45.24</v>
@@ -1466,7 +1466,7 @@
         <v>880.88</v>
       </c>
       <c r="AF9">
-        <v>965.8683333333333</v>
+        <v>965.87</v>
       </c>
       <c r="AG9">
         <v>45.24</v>
@@ -1570,7 +1570,7 @@
         <v>1017.51</v>
       </c>
       <c r="AF10">
-        <v>965.8683333333333</v>
+        <v>965.87</v>
       </c>
       <c r="AG10">
         <v>45.24</v>
@@ -1674,7 +1674,7 @@
         <v>1216.98</v>
       </c>
       <c r="AF11">
-        <v>965.8683333333333</v>
+        <v>965.87</v>
       </c>
       <c r="AG11">
         <v>45.24</v>
@@ -1778,7 +1778,7 @@
         <v>1218.12</v>
       </c>
       <c r="AF12">
-        <v>965.8683333333333</v>
+        <v>965.87</v>
       </c>
       <c r="AG12">
         <v>45.24</v>
@@ -1882,13 +1882,13 @@
         <v>1171.5</v>
       </c>
       <c r="AF13">
-        <v>965.8683333333333</v>
+        <v>965.87</v>
       </c>
       <c r="AG13">
         <v>45.24</v>
       </c>
       <c r="AH13">
-        <v>350.4388888888889</v>
+        <v>350.44</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1983,7 +1983,7 @@
         <v>229.3</v>
       </c>
       <c r="AE14">
-        <v>695.3758333333334</v>
+        <v>695.38</v>
       </c>
       <c r="AF14">
         <v>1207.1</v>
@@ -2087,7 +2087,7 @@
         <v>176.5</v>
       </c>
       <c r="AE15">
-        <v>695.3758333333334</v>
+        <v>695.38</v>
       </c>
       <c r="AF15">
         <v>1326.6</v>
@@ -2191,7 +2191,7 @@
         <v>181.6</v>
       </c>
       <c r="AE16">
-        <v>695.3758333333334</v>
+        <v>695.38</v>
       </c>
       <c r="AF16">
         <v>1457.7</v>
@@ -2200,7 +2200,7 @@
         <v>44.35</v>
       </c>
       <c r="AH16">
-        <v>350.4388888888889</v>
+        <v>350.44</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2268,7 +2268,7 @@
         <v>1238.2</v>
       </c>
       <c r="V17">
-        <v>68.98666666666666</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="W17">
         <v>565.8</v>
@@ -2295,7 +2295,7 @@
         <v>95</v>
       </c>
       <c r="AE17">
-        <v>695.3758333333334</v>
+        <v>695.38</v>
       </c>
       <c r="AF17">
         <v>1328</v>
@@ -2372,7 +2372,7 @@
         <v>1158.5</v>
       </c>
       <c r="V18">
-        <v>68.98666666666666</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="W18">
         <v>429.7</v>
@@ -2399,7 +2399,7 @@
         <v>54</v>
       </c>
       <c r="AE18">
-        <v>695.3758333333334</v>
+        <v>695.38</v>
       </c>
       <c r="AF18">
         <v>1118</v>
@@ -2503,7 +2503,7 @@
         <v>58.7</v>
       </c>
       <c r="AE19">
-        <v>695.3758333333334</v>
+        <v>695.38</v>
       </c>
       <c r="AF19">
         <v>1388.3</v>
@@ -2607,7 +2607,7 @@
         <v>97.09999999999999</v>
       </c>
       <c r="AE20">
-        <v>695.3758333333334</v>
+        <v>695.38</v>
       </c>
       <c r="AF20">
         <v>1778.6</v>
@@ -2711,7 +2711,7 @@
         <v>93.2</v>
       </c>
       <c r="AE21">
-        <v>695.3758333333334</v>
+        <v>695.38</v>
       </c>
       <c r="AF21">
         <v>1967.5</v>
